--- a/docs/computEL/heat-map.xlsx
+++ b/docs/computEL/heat-map.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="620" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Final" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Final" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -111,13 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="#,##0" numFmtId="165"/>
-    <numFmt formatCode="M/D/YYYY" numFmtId="166"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,22 +120,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -149,7 +128,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Mongolian Baiti"/>
@@ -165,755 +144,1001 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="N10" activeCellId="0" pane="topLeft" sqref="N10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.71255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="1.7109375"/>
+    <col min="2" max="2" width="18.5703125"/>
+    <col min="3" max="3" width="15.28515625"/>
+    <col min="4" max="4" width="8.5703125"/>
+    <col min="5" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="17.7109375"/>
+    <col min="8" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.75" outlineLevel="0" r="1">
+    <row r="1" spans="2:7" ht="18.75">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>490</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>117</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>56</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>26</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>162</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>475</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>229</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>358</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>186</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>240</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>123</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>267</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>61</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>16</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>164</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>14</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="2:7">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>176</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>81</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>183</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>81</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>218</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>35</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>68</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>33</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="2:7">
       <c r="G10" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="2:2">
       <c r="B19" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="2:2">
       <c r="B20" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="2:2">
       <c r="B21" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="2:2">
       <c r="B22" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="2:2">
       <c r="B23" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="2:2">
       <c r="B24" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" spans="2:2">
       <c r="B25" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="2:2">
       <c r="B26" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" spans="2:2">
       <c r="B27" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+    <row r="28" spans="2:2">
       <c r="B28" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" spans="2:2">
       <c r="B29" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" spans="2:2">
       <c r="B30" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+    <row r="31" spans="2:2">
       <c r="B31" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
+    <row r="32" spans="2:2">
       <c r="B32" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+    <row r="33" spans="2:3">
       <c r="B33" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+    <row r="34" spans="2:3">
       <c r="B34" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
+    <row r="35" spans="2:3">
       <c r="B35" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+    <row r="36" spans="2:3">
       <c r="B36" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
+    <row r="37" spans="2:3">
       <c r="B37" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+    <row r="38" spans="2:3">
       <c r="B38" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+    <row r="39" spans="2:3">
       <c r="B39" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+    <row r="40" spans="2:3">
       <c r="B40" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+    <row r="41" spans="2:3">
       <c r="B41" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+    <row r="42" spans="2:3">
       <c r="B42" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+    <row r="43" spans="2:3">
       <c r="B43" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+    <row r="44" spans="2:3">
       <c r="B44" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
+    <row r="45" spans="2:3">
       <c r="B45" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
+    <row r="46" spans="2:3">
       <c r="B46" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
+    <row r="47" spans="2:3">
       <c r="B47" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
-      <c r="C48" s="2" t="n">
+    <row r="48" spans="2:3">
+      <c r="C48" s="2">
         <v>1596</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.71255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="20.0364372469636"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1174089068826"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1902834008097"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="1.7109375"/>
+    <col min="2" max="2" width="20" style="4"/>
+    <col min="3" max="3" width="10.140625"/>
+    <col min="4" max="4" width="8.5703125"/>
+    <col min="5" max="6" width="10.5703125"/>
+    <col min="7" max="7" width="12.140625"/>
+    <col min="8" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="1">
+    <row r="1" spans="2:7" ht="18.75">
       <c r="B1" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="3">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="2:7" ht="29.25">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.25" outlineLevel="0" r="4">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:7" ht="20.25" customHeight="1">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>82</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="7">
         <v>56</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="7">
         <v>83</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="7">
         <v>74</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="11">
         <v>90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.25" outlineLevel="0" r="5">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:7" ht="20.25" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="7">
         <v>49</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="7">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="7">
         <v>39</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="7">
         <v>32</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="12">
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.25" outlineLevel="0" r="6">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:7" ht="20.25" customHeight="1">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="7">
         <v>62</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="7">
         <v>6</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="7">
         <v>33</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="7">
         <v>17</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="11">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.25" outlineLevel="0" r="7">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:7" ht="20.25" customHeight="1">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="7">
         <v>113</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="7">
         <v>11</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="7">
         <v>51</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="7">
         <v>25</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="11">
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.25" outlineLevel="0" r="8">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="2:7" ht="20.25" customHeight="1">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="7">
         <v>356</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="7">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="7">
         <v>71</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="7">
         <v>27</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="11">
         <v>400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="20.25" outlineLevel="0" r="9">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:7" ht="20.25" customHeight="1">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="7">
         <v>160</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="7">
         <v>11</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="11">
         <v>168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="10">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="7">
         <v>154</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="7">
         <v>30</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="7">
         <v>16</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="11">
         <v>175</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="11">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="7">
         <v>66</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="7">
         <v>8</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="7">
         <v>4</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="12">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="12">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="7">
         <v>64</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="7">
         <v>3</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="7">
         <v>3</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="11">
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="13">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="2:7">
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="7">
         <v>66</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="7">
         <v>4</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="11">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="14">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="2:7">
+      <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="7">
         <v>20</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="7">
         <v>0</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="11">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="15">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="2:7">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="7">
         <v>25</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="11">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
-      <c r="B19" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
-      <c r="B20" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
-      <c r="B21" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
-      <c r="B22" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
-      <c r="B23" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
-      <c r="B24" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
-      <c r="B25" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
-      <c r="B26" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
-      <c r="B27" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
-      <c r="B28" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
-      <c r="B29" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
-      <c r="B30" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="31">
-      <c r="B31" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
-      <c r="B32" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
-      <c r="B33" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="34">
-      <c r="B34" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
-      <c r="B35" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
-      <c r="B36" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="37">
-      <c r="B37" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
-      <c r="B38" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
-      <c r="B39" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="40">
-      <c r="B40" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
-      <c r="B41" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42">
-      <c r="B42" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="43">
-      <c r="B43" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44">
-      <c r="B44" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="45">
-      <c r="B45" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="46">
-      <c r="B46" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="47">
-      <c r="B47" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="48">
-      <c r="C48" s="2" t="n">
+    <row r="19" spans="2:2">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="2">
         <v>1596</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:G9">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF74B4F"/>
         <color rgb="FFFFE45B"/>
         <color rgb="FF4FB56A"/>
@@ -921,23 +1146,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:G15">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF74B4F"/>
         <color rgb="FFFFE45B"/>
         <color rgb="FF4FB56A"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>